--- a/Docs/Funding/GEF5/GEF5 SLM BUDGET REQUEST SHEET - 2018 Q4.xlsx
+++ b/Docs/Funding/GEF5/GEF5 SLM BUDGET REQUEST SHEET - 2018 Q4.xlsx
@@ -113,9 +113,6 @@
     <t>Q1 (Jan- Mar) 2019</t>
   </si>
   <si>
-    <t>3 months consultant time at ZAR 300/hr for 30 days work</t>
-  </si>
-  <si>
     <t>Q2 (Apr- June) 2019</t>
   </si>
   <si>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t xml:space="preserve">1) Results of activ ities 1-5 (models, graphs, maps and correlation statistics).  </t>
+  </si>
+  <si>
+    <t>3 months consultant time at ZAR 300/hr for 18 days work</t>
   </si>
 </sst>
 </file>
@@ -535,6 +535,7 @@
     <xf numFmtId="168" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -544,7 +545,6 @@
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma 2" xfId="2"/>
@@ -1016,7 +1016,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1033,10 +1033,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="50"/>
+      <c r="B1" s="51"/>
       <c r="C1" s="3"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -1080,12 +1080,12 @@
         <v>2018</v>
       </c>
       <c r="C3" s="17"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
       <c r="J3" s="18"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -1198,7 +1198,7 @@
         <v>21</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J7" s="21" t="s">
         <v>10</v>
@@ -1235,12 +1235,12 @@
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="51"/>
-      <c r="W8" s="51"/>
-      <c r="X8" s="51"/>
-      <c r="Y8" s="51"/>
-      <c r="Z8" s="51"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="52"/>
       <c r="AA8" s="12"/>
       <c r="AB8" s="12"/>
       <c r="AC8" s="14"/>
@@ -1251,10 +1251,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="46" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>25</v>
       </c>
       <c r="D9" s="26">
         <v>25200</v>
@@ -1278,7 +1278,7 @@
         <v>27694.5</v>
       </c>
       <c r="J9" s="47" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K9" s="20"/>
       <c r="L9" s="11"/>
@@ -1329,9 +1329,9 @@
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
       <c r="W10" s="13"/>
-      <c r="X10" s="51"/>
-      <c r="Y10" s="51"/>
-      <c r="Z10" s="51"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="52"/>
+      <c r="Z10" s="52"/>
       <c r="AA10" s="12"/>
       <c r="AB10" s="12"/>
       <c r="AC10" s="14"/>
@@ -1370,9 +1370,9 @@
       <c r="J11" s="49"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="4">
